--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 4/04-01-using-median-and-mode-Complete.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 4/04-01-using-median-and-mode-Complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11D5B6C-7FC0-42F4-8F26-4D1153667D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C6386-28FC-4238-AFBD-BA2844576ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDIAN and MODE" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Average</t>
   </si>
@@ -72,14 +72,21 @@
   <si>
     <t>Mode(Multiple)</t>
   </si>
+  <si>
+    <t>(Mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the most occurrences of  certain number </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -149,14 +156,14 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -166,13 +173,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -180,7 +187,57 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0E0C7AD2-232E-40D0-A584-26C8B9907C81}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -462,51 +519,59 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:N22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="2" max="2" width="9"/>
-    <col min="3" max="3" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="7" max="8" width="12.69921875" customWidth="1"/>
+    <col min="9" max="9" width="35.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="16384" width="8.75" style="1"/>
+    <col min="15" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>5713.3770893368946</v>
       </c>
@@ -540,7 +605,7 @@
         <v>5713.3770893368946</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>5767.2059450476645</v>
       </c>
@@ -561,7 +626,7 @@
         <v>5912.6508549444488</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>5612.1133538738322</v>
       </c>
@@ -581,7 +646,7 @@
         <v>5612.1133538738322</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5950.0867597658262</v>
       </c>
@@ -599,7 +664,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5199.3229084971099</v>
       </c>
@@ -616,7 +681,7 @@
         <v>5713.3770893368946</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5612.1133538738322</v>
       </c>
@@ -633,7 +698,7 @@
         <v>5457.1529439089281</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5408.398572387553</v>
       </c>
@@ -650,7 +715,7 @@
         <v>5912.6508549444488</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>5607.1548345350111</v>
       </c>
@@ -667,7 +732,7 @@
         <v>5553.0523545733413</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5344.3472812746368</v>
       </c>
@@ -684,7 +749,7 @@
         <v>5014.2580075543956</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5944.6064392554617</v>
       </c>
@@ -701,70 +766,70 @@
         <v>5818.4873997800323</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -778,6 +843,18 @@
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:E12">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="5713">
+      <formula>NOT(ISERROR(SEARCH("5713",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="5913">
+      <formula>NOT(ISERROR(SEARCH("5913",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="5913">
+      <formula>NOT(ISERROR(SEARCH("5913",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>